--- a/excel/experiment_data.xlsx
+++ b/excel/experiment_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="-4220" windowWidth="31180" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k=1" sheetId="2" r:id="rId1"/>
@@ -410,7 +410,7 @@
     </textPr>
   </connection>
   <connection id="23" name="results.csv6" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Ohne Titel:Users:mirkorichter:Documents:A_Synced Documents:UZH:HS16:DistDatabase:DDBS_Bloomfilter:results.csv" thousands="'" comma="1">
+    <textPr fileType="mac" sourceFile="Ohne Titel:Users:mirkorichter:Documents:A_Synced Documents:UZH:HS16:DistDatabase:DDBS_Bloomfilter:results.csv" thousands="'" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -816,11 +816,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2085306776"/>
-        <c:axId val="2085310328"/>
+        <c:axId val="2100124488"/>
+        <c:axId val="2100130648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2085306776"/>
+        <c:axId val="2100124488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085310328"/>
+        <c:crossAx val="2100130648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085310328"/>
+        <c:axId val="2100130648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,14 +848,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085306776"/>
+        <c:crossAx val="2100124488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1232,11 +1231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117538360"/>
-        <c:axId val="2083448344"/>
+        <c:axId val="2100260200"/>
+        <c:axId val="2100263112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117538360"/>
+        <c:axId val="2100260200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083448344"/>
+        <c:crossAx val="2100263112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083448344"/>
+        <c:axId val="2100263112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117538360"/>
+        <c:crossAx val="2100260200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1361,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="23" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,31 +1369,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,23 +1401,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,31 +1425,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="23" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6683,7 +6682,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11603,7 +11601,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16516,7 +16513,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/excel/experiment_data.xlsx
+++ b/excel/experiment_data.xlsx
@@ -4,41 +4,35 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="k=1" sheetId="2" r:id="rId1"/>
     <sheet name="k=11" sheetId="3" r:id="rId2"/>
     <sheet name="k=21" sheetId="4" r:id="rId3"/>
     <sheet name="k=31" sheetId="5" r:id="rId4"/>
-    <sheet name="k=41" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="results" localSheetId="0">'k=1'!$A$1:$GW$5</definedName>
     <definedName name="results" localSheetId="1">'k=11'!$A$1:$GW$5</definedName>
     <definedName name="results" localSheetId="2">'k=21'!$A$1:$AZ$5</definedName>
     <definedName name="results" localSheetId="3">'k=31'!$A$1:$AZ$5</definedName>
-    <definedName name="results" localSheetId="4">'k=41'!$A$1:$AZ$5</definedName>
     <definedName name="results_1" localSheetId="0">'k=1'!$A$6:$GW$10</definedName>
     <definedName name="results_1" localSheetId="1">'k=11'!$A$6:$AZ$10</definedName>
     <definedName name="results_1" localSheetId="2">'k=21'!$A$6:$AZ$10</definedName>
     <definedName name="results_1" localSheetId="3">'k=31'!$A$6:$AZ$10</definedName>
-    <definedName name="results_1" localSheetId="4">'k=41'!$A$6:$AZ$10</definedName>
     <definedName name="results_2" localSheetId="0">'k=1'!$A$11:$GW$15</definedName>
     <definedName name="results_2" localSheetId="1">'k=11'!$A$11:$AZ$15</definedName>
     <definedName name="results_2" localSheetId="2">'k=21'!$A$11:$AZ$15</definedName>
     <definedName name="results_2" localSheetId="3">'k=31'!$A$11:$AZ$15</definedName>
-    <definedName name="results_2" localSheetId="4">'k=41'!$A$11:$AZ$15</definedName>
     <definedName name="results_3" localSheetId="0">'k=1'!$A$16:$GW$20</definedName>
     <definedName name="results_3" localSheetId="1">'k=11'!$A$16:$AZ$20</definedName>
     <definedName name="results_3" localSheetId="2">'k=21'!$A$16:$AZ$20</definedName>
     <definedName name="results_3" localSheetId="3">'k=31'!$A$16:$AZ$20</definedName>
-    <definedName name="results_3" localSheetId="4">'k=41'!$A$16:$AZ$20</definedName>
     <definedName name="results_4" localSheetId="0">'k=1'!$A$21:$GW$25</definedName>
     <definedName name="results_4" localSheetId="1">'k=11'!$A$21:$AZ$25</definedName>
     <definedName name="results_4" localSheetId="2">'k=21'!$A$21:$AZ$25</definedName>
     <definedName name="results_4" localSheetId="3">'k=31'!$A$21:$AZ$25</definedName>
-    <definedName name="results_4" localSheetId="4">'k=41'!$A$21:$AZ$25</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -492,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="6">
   <si>
     <t>K \ M</t>
   </si>
@@ -516,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,13 +530,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -586,9 +573,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -816,11 +802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100124488"/>
-        <c:axId val="2100130648"/>
+        <c:axId val="2068068664"/>
+        <c:axId val="2068071464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100124488"/>
+        <c:axId val="2068068664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100130648"/>
+        <c:crossAx val="2068071464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100130648"/>
+        <c:axId val="2068071464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100124488"/>
+        <c:crossAx val="2068068664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1231,11 +1217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100260200"/>
-        <c:axId val="2100263112"/>
+        <c:axId val="2068156808"/>
+        <c:axId val="2068159752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100260200"/>
+        <c:axId val="2068156808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100263112"/>
+        <c:crossAx val="2068159752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100263112"/>
+        <c:axId val="2068159752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100260200"/>
+        <c:crossAx val="2068156808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1361,7 +1347,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="23" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,31 +1355,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,55 +1387,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_1" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="26" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_4" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="23" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_2" connectionId="25" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11613,7 +11579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32:AZ32"/>
     </sheetView>
   </sheetViews>
@@ -16526,7 +16492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD32"/>
     </sheetView>
   </sheetViews>
@@ -21433,4777 +21399,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="51" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1000</v>
-      </c>
-      <c r="C1">
-        <v>3000</v>
-      </c>
-      <c r="D1">
-        <v>5000</v>
-      </c>
-      <c r="E1">
-        <v>7000</v>
-      </c>
-      <c r="F1">
-        <v>9000</v>
-      </c>
-      <c r="G1">
-        <v>11000</v>
-      </c>
-      <c r="H1">
-        <v>13000</v>
-      </c>
-      <c r="I1">
-        <v>15000</v>
-      </c>
-      <c r="J1">
-        <v>17000</v>
-      </c>
-      <c r="K1">
-        <v>19000</v>
-      </c>
-      <c r="L1">
-        <v>21000</v>
-      </c>
-      <c r="M1">
-        <v>23000</v>
-      </c>
-      <c r="N1">
-        <v>25000</v>
-      </c>
-      <c r="O1">
-        <v>27000</v>
-      </c>
-      <c r="P1">
-        <v>29000</v>
-      </c>
-      <c r="Q1">
-        <v>31000</v>
-      </c>
-      <c r="R1">
-        <v>33000</v>
-      </c>
-      <c r="S1">
-        <v>35000</v>
-      </c>
-      <c r="T1">
-        <v>37000</v>
-      </c>
-      <c r="U1">
-        <v>39000</v>
-      </c>
-      <c r="V1">
-        <v>41000</v>
-      </c>
-      <c r="W1">
-        <v>43000</v>
-      </c>
-      <c r="X1">
-        <v>45000</v>
-      </c>
-      <c r="Y1">
-        <v>47000</v>
-      </c>
-      <c r="Z1">
-        <v>49000</v>
-      </c>
-      <c r="AA1">
-        <v>51000</v>
-      </c>
-      <c r="AB1">
-        <v>53000</v>
-      </c>
-      <c r="AC1">
-        <v>55000</v>
-      </c>
-      <c r="AD1">
-        <v>57000</v>
-      </c>
-      <c r="AE1">
-        <v>59000</v>
-      </c>
-      <c r="AF1">
-        <v>61000</v>
-      </c>
-      <c r="AG1">
-        <v>63000</v>
-      </c>
-      <c r="AH1">
-        <v>65000</v>
-      </c>
-      <c r="AI1">
-        <v>67000</v>
-      </c>
-      <c r="AJ1">
-        <v>69000</v>
-      </c>
-      <c r="AK1">
-        <v>71000</v>
-      </c>
-      <c r="AL1">
-        <v>73000</v>
-      </c>
-      <c r="AM1">
-        <v>75000</v>
-      </c>
-      <c r="AN1">
-        <v>77000</v>
-      </c>
-      <c r="AO1">
-        <v>79000</v>
-      </c>
-      <c r="AP1">
-        <v>81000</v>
-      </c>
-      <c r="AQ1">
-        <v>83000</v>
-      </c>
-      <c r="AR1">
-        <v>85000</v>
-      </c>
-      <c r="AS1">
-        <v>87000</v>
-      </c>
-      <c r="AT1">
-        <v>89000</v>
-      </c>
-      <c r="AU1">
-        <v>91000</v>
-      </c>
-      <c r="AV1">
-        <v>93000</v>
-      </c>
-      <c r="AW1">
-        <v>95000</v>
-      </c>
-      <c r="AX1">
-        <v>97000</v>
-      </c>
-      <c r="AY1">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52">
-      <c r="A2">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>2901</v>
-      </c>
-      <c r="D2">
-        <v>4365</v>
-      </c>
-      <c r="E2">
-        <v>5409</v>
-      </c>
-      <c r="F2">
-        <v>6201</v>
-      </c>
-      <c r="G2">
-        <v>6743</v>
-      </c>
-      <c r="H2">
-        <v>7137</v>
-      </c>
-      <c r="I2">
-        <v>7475</v>
-      </c>
-      <c r="J2">
-        <v>7754</v>
-      </c>
-      <c r="K2">
-        <v>7983</v>
-      </c>
-      <c r="L2">
-        <v>8163</v>
-      </c>
-      <c r="M2">
-        <v>8284</v>
-      </c>
-      <c r="N2">
-        <v>8521</v>
-      </c>
-      <c r="O2">
-        <v>8600</v>
-      </c>
-      <c r="P2">
-        <v>8726</v>
-      </c>
-      <c r="Q2">
-        <v>8753</v>
-      </c>
-      <c r="R2">
-        <v>8968</v>
-      </c>
-      <c r="S2">
-        <v>8965</v>
-      </c>
-      <c r="T2">
-        <v>9119</v>
-      </c>
-      <c r="U2">
-        <v>9082</v>
-      </c>
-      <c r="V2">
-        <v>9154</v>
-      </c>
-      <c r="W2">
-        <v>9233</v>
-      </c>
-      <c r="X2">
-        <v>9289</v>
-      </c>
-      <c r="Y2">
-        <v>9322</v>
-      </c>
-      <c r="Z2">
-        <v>9325</v>
-      </c>
-      <c r="AA2">
-        <v>9379</v>
-      </c>
-      <c r="AB2">
-        <v>9435</v>
-      </c>
-      <c r="AC2">
-        <v>9489</v>
-      </c>
-      <c r="AD2">
-        <v>9499</v>
-      </c>
-      <c r="AE2">
-        <v>9462</v>
-      </c>
-      <c r="AF2">
-        <v>9494</v>
-      </c>
-      <c r="AG2">
-        <v>9520</v>
-      </c>
-      <c r="AH2">
-        <v>9540</v>
-      </c>
-      <c r="AI2">
-        <v>9629</v>
-      </c>
-      <c r="AJ2">
-        <v>9588</v>
-      </c>
-      <c r="AK2">
-        <v>9658</v>
-      </c>
-      <c r="AL2">
-        <v>9678</v>
-      </c>
-      <c r="AM2">
-        <v>9693</v>
-      </c>
-      <c r="AN2">
-        <v>9696</v>
-      </c>
-      <c r="AO2">
-        <v>9717</v>
-      </c>
-      <c r="AP2">
-        <v>9732</v>
-      </c>
-      <c r="AQ2">
-        <v>9776</v>
-      </c>
-      <c r="AR2">
-        <v>9772</v>
-      </c>
-      <c r="AS2">
-        <v>9786</v>
-      </c>
-      <c r="AT2">
-        <v>9779</v>
-      </c>
-      <c r="AU2">
-        <v>9836</v>
-      </c>
-      <c r="AV2">
-        <v>9808</v>
-      </c>
-      <c r="AW2">
-        <v>9845</v>
-      </c>
-      <c r="AX2">
-        <v>9819</v>
-      </c>
-      <c r="AY2">
-        <v>9869</v>
-      </c>
-      <c r="AZ2">
-        <v>9856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52">
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>7000</v>
-      </c>
-      <c r="F3">
-        <v>9000</v>
-      </c>
-      <c r="G3">
-        <v>11000</v>
-      </c>
-      <c r="H3">
-        <v>13000</v>
-      </c>
-      <c r="I3">
-        <v>15000</v>
-      </c>
-      <c r="J3">
-        <v>17000</v>
-      </c>
-      <c r="K3">
-        <v>19000</v>
-      </c>
-      <c r="L3">
-        <v>21000</v>
-      </c>
-      <c r="M3">
-        <v>23000</v>
-      </c>
-      <c r="N3">
-        <v>25000</v>
-      </c>
-      <c r="O3">
-        <v>27000</v>
-      </c>
-      <c r="P3">
-        <v>29000</v>
-      </c>
-      <c r="Q3">
-        <v>31000</v>
-      </c>
-      <c r="R3">
-        <v>33000</v>
-      </c>
-      <c r="S3">
-        <v>35000</v>
-      </c>
-      <c r="T3">
-        <v>37000</v>
-      </c>
-      <c r="U3">
-        <v>39000</v>
-      </c>
-      <c r="V3">
-        <v>41000</v>
-      </c>
-      <c r="W3">
-        <v>43000</v>
-      </c>
-      <c r="X3">
-        <v>45000</v>
-      </c>
-      <c r="Y3">
-        <v>47000</v>
-      </c>
-      <c r="Z3">
-        <v>49000</v>
-      </c>
-      <c r="AA3">
-        <v>51000</v>
-      </c>
-      <c r="AB3">
-        <v>53000</v>
-      </c>
-      <c r="AC3">
-        <v>55000</v>
-      </c>
-      <c r="AD3">
-        <v>57000</v>
-      </c>
-      <c r="AE3">
-        <v>58999</v>
-      </c>
-      <c r="AF3">
-        <v>61000</v>
-      </c>
-      <c r="AG3">
-        <v>63000</v>
-      </c>
-      <c r="AH3">
-        <v>64998</v>
-      </c>
-      <c r="AI3">
-        <v>66998</v>
-      </c>
-      <c r="AJ3">
-        <v>68998</v>
-      </c>
-      <c r="AK3">
-        <v>70995</v>
-      </c>
-      <c r="AL3">
-        <v>72996</v>
-      </c>
-      <c r="AM3">
-        <v>74994</v>
-      </c>
-      <c r="AN3">
-        <v>76994</v>
-      </c>
-      <c r="AO3">
-        <v>78990</v>
-      </c>
-      <c r="AP3">
-        <v>80987</v>
-      </c>
-      <c r="AQ3">
-        <v>82988</v>
-      </c>
-      <c r="AR3">
-        <v>84982</v>
-      </c>
-      <c r="AS3">
-        <v>86979</v>
-      </c>
-      <c r="AT3">
-        <v>88961</v>
-      </c>
-      <c r="AU3">
-        <v>90963</v>
-      </c>
-      <c r="AV3">
-        <v>92954</v>
-      </c>
-      <c r="AW3">
-        <v>94957</v>
-      </c>
-      <c r="AX3">
-        <v>96956</v>
-      </c>
-      <c r="AY3">
-        <v>98932</v>
-      </c>
-      <c r="AZ3">
-        <v>100912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52">
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>2901</v>
-      </c>
-      <c r="D4">
-        <v>4365</v>
-      </c>
-      <c r="E4">
-        <v>5409</v>
-      </c>
-      <c r="F4">
-        <v>6201</v>
-      </c>
-      <c r="G4">
-        <v>6743</v>
-      </c>
-      <c r="H4">
-        <v>7137</v>
-      </c>
-      <c r="I4">
-        <v>7475</v>
-      </c>
-      <c r="J4">
-        <v>7754</v>
-      </c>
-      <c r="K4">
-        <v>7983</v>
-      </c>
-      <c r="L4">
-        <v>8163</v>
-      </c>
-      <c r="M4">
-        <v>8284</v>
-      </c>
-      <c r="N4">
-        <v>8521</v>
-      </c>
-      <c r="O4">
-        <v>8600</v>
-      </c>
-      <c r="P4">
-        <v>8726</v>
-      </c>
-      <c r="Q4">
-        <v>8753</v>
-      </c>
-      <c r="R4">
-        <v>8968</v>
-      </c>
-      <c r="S4">
-        <v>8965</v>
-      </c>
-      <c r="T4">
-        <v>9119</v>
-      </c>
-      <c r="U4">
-        <v>9082</v>
-      </c>
-      <c r="V4">
-        <v>9154</v>
-      </c>
-      <c r="W4">
-        <v>9233</v>
-      </c>
-      <c r="X4">
-        <v>9289</v>
-      </c>
-      <c r="Y4">
-        <v>9322</v>
-      </c>
-      <c r="Z4">
-        <v>9325</v>
-      </c>
-      <c r="AA4">
-        <v>9379</v>
-      </c>
-      <c r="AB4">
-        <v>9435</v>
-      </c>
-      <c r="AC4">
-        <v>9489</v>
-      </c>
-      <c r="AD4">
-        <v>9499</v>
-      </c>
-      <c r="AE4">
-        <v>9462</v>
-      </c>
-      <c r="AF4">
-        <v>9494</v>
-      </c>
-      <c r="AG4">
-        <v>9520</v>
-      </c>
-      <c r="AH4">
-        <v>9540</v>
-      </c>
-      <c r="AI4">
-        <v>9628</v>
-      </c>
-      <c r="AJ4">
-        <v>9588</v>
-      </c>
-      <c r="AK4">
-        <v>9658</v>
-      </c>
-      <c r="AL4">
-        <v>9676</v>
-      </c>
-      <c r="AM4">
-        <v>9693</v>
-      </c>
-      <c r="AN4">
-        <v>9696</v>
-      </c>
-      <c r="AO4">
-        <v>9717</v>
-      </c>
-      <c r="AP4">
-        <v>9730</v>
-      </c>
-      <c r="AQ4">
-        <v>9775</v>
-      </c>
-      <c r="AR4">
-        <v>9770</v>
-      </c>
-      <c r="AS4">
-        <v>9782</v>
-      </c>
-      <c r="AT4">
-        <v>9773</v>
-      </c>
-      <c r="AU4">
-        <v>9832</v>
-      </c>
-      <c r="AV4">
-        <v>9805</v>
-      </c>
-      <c r="AW4">
-        <v>9843</v>
-      </c>
-      <c r="AX4">
-        <v>9812</v>
-      </c>
-      <c r="AY4">
-        <v>9863</v>
-      </c>
-      <c r="AZ4">
-        <v>9849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52">
-      <c r="B5">
-        <v>17645</v>
-      </c>
-      <c r="C5">
-        <v>4680</v>
-      </c>
-      <c r="D5">
-        <v>310</v>
-      </c>
-      <c r="E5">
-        <v>241</v>
-      </c>
-      <c r="F5">
-        <v>241</v>
-      </c>
-      <c r="G5">
-        <v>241</v>
-      </c>
-      <c r="H5">
-        <v>241</v>
-      </c>
-      <c r="I5">
-        <v>241</v>
-      </c>
-      <c r="J5">
-        <v>241</v>
-      </c>
-      <c r="K5">
-        <v>241</v>
-      </c>
-      <c r="L5">
-        <v>241</v>
-      </c>
-      <c r="M5">
-        <v>241</v>
-      </c>
-      <c r="N5">
-        <v>241</v>
-      </c>
-      <c r="O5">
-        <v>241</v>
-      </c>
-      <c r="P5">
-        <v>241</v>
-      </c>
-      <c r="Q5">
-        <v>241</v>
-      </c>
-      <c r="R5">
-        <v>241</v>
-      </c>
-      <c r="S5">
-        <v>241</v>
-      </c>
-      <c r="T5">
-        <v>241</v>
-      </c>
-      <c r="U5">
-        <v>241</v>
-      </c>
-      <c r="V5">
-        <v>241</v>
-      </c>
-      <c r="W5">
-        <v>241</v>
-      </c>
-      <c r="X5">
-        <v>241</v>
-      </c>
-      <c r="Y5">
-        <v>241</v>
-      </c>
-      <c r="Z5">
-        <v>241</v>
-      </c>
-      <c r="AA5">
-        <v>241</v>
-      </c>
-      <c r="AB5">
-        <v>241</v>
-      </c>
-      <c r="AC5">
-        <v>241</v>
-      </c>
-      <c r="AD5">
-        <v>241</v>
-      </c>
-      <c r="AE5">
-        <v>241</v>
-      </c>
-      <c r="AF5">
-        <v>241</v>
-      </c>
-      <c r="AG5">
-        <v>241</v>
-      </c>
-      <c r="AH5">
-        <v>241</v>
-      </c>
-      <c r="AI5">
-        <v>240</v>
-      </c>
-      <c r="AJ5">
-        <v>241</v>
-      </c>
-      <c r="AK5">
-        <v>241</v>
-      </c>
-      <c r="AL5">
-        <v>239</v>
-      </c>
-      <c r="AM5">
-        <v>241</v>
-      </c>
-      <c r="AN5">
-        <v>241</v>
-      </c>
-      <c r="AO5">
-        <v>241</v>
-      </c>
-      <c r="AP5">
-        <v>239</v>
-      </c>
-      <c r="AQ5">
-        <v>239</v>
-      </c>
-      <c r="AR5">
-        <v>239</v>
-      </c>
-      <c r="AS5">
-        <v>237</v>
-      </c>
-      <c r="AT5">
-        <v>234</v>
-      </c>
-      <c r="AU5">
-        <v>236</v>
-      </c>
-      <c r="AV5">
-        <v>237</v>
-      </c>
-      <c r="AW5">
-        <v>239</v>
-      </c>
-      <c r="AX5">
-        <v>233</v>
-      </c>
-      <c r="AY5">
-        <v>235</v>
-      </c>
-      <c r="AZ5">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>3000</v>
-      </c>
-      <c r="D6">
-        <v>5000</v>
-      </c>
-      <c r="E6">
-        <v>7000</v>
-      </c>
-      <c r="F6">
-        <v>9000</v>
-      </c>
-      <c r="G6">
-        <v>11000</v>
-      </c>
-      <c r="H6">
-        <v>13000</v>
-      </c>
-      <c r="I6">
-        <v>15000</v>
-      </c>
-      <c r="J6">
-        <v>17000</v>
-      </c>
-      <c r="K6">
-        <v>19000</v>
-      </c>
-      <c r="L6">
-        <v>21000</v>
-      </c>
-      <c r="M6">
-        <v>23000</v>
-      </c>
-      <c r="N6">
-        <v>25000</v>
-      </c>
-      <c r="O6">
-        <v>27000</v>
-      </c>
-      <c r="P6">
-        <v>29000</v>
-      </c>
-      <c r="Q6">
-        <v>31000</v>
-      </c>
-      <c r="R6">
-        <v>33000</v>
-      </c>
-      <c r="S6">
-        <v>35000</v>
-      </c>
-      <c r="T6">
-        <v>37000</v>
-      </c>
-      <c r="U6">
-        <v>39000</v>
-      </c>
-      <c r="V6">
-        <v>41000</v>
-      </c>
-      <c r="W6">
-        <v>43000</v>
-      </c>
-      <c r="X6">
-        <v>45000</v>
-      </c>
-      <c r="Y6">
-        <v>47000</v>
-      </c>
-      <c r="Z6">
-        <v>49000</v>
-      </c>
-      <c r="AA6">
-        <v>51000</v>
-      </c>
-      <c r="AB6">
-        <v>53000</v>
-      </c>
-      <c r="AC6">
-        <v>55000</v>
-      </c>
-      <c r="AD6">
-        <v>57000</v>
-      </c>
-      <c r="AE6">
-        <v>59000</v>
-      </c>
-      <c r="AF6">
-        <v>61000</v>
-      </c>
-      <c r="AG6">
-        <v>63000</v>
-      </c>
-      <c r="AH6">
-        <v>65000</v>
-      </c>
-      <c r="AI6">
-        <v>67000</v>
-      </c>
-      <c r="AJ6">
-        <v>69000</v>
-      </c>
-      <c r="AK6">
-        <v>71000</v>
-      </c>
-      <c r="AL6">
-        <v>73000</v>
-      </c>
-      <c r="AM6">
-        <v>75000</v>
-      </c>
-      <c r="AN6">
-        <v>77000</v>
-      </c>
-      <c r="AO6">
-        <v>79000</v>
-      </c>
-      <c r="AP6">
-        <v>81000</v>
-      </c>
-      <c r="AQ6">
-        <v>83000</v>
-      </c>
-      <c r="AR6">
-        <v>85000</v>
-      </c>
-      <c r="AS6">
-        <v>87000</v>
-      </c>
-      <c r="AT6">
-        <v>89000</v>
-      </c>
-      <c r="AU6">
-        <v>91000</v>
-      </c>
-      <c r="AV6">
-        <v>93000</v>
-      </c>
-      <c r="AW6">
-        <v>95000</v>
-      </c>
-      <c r="AX6">
-        <v>97000</v>
-      </c>
-      <c r="AY6">
-        <v>99000</v>
-      </c>
-      <c r="AZ6">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52">
-      <c r="A7">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>2914</v>
-      </c>
-      <c r="D7">
-        <v>4377</v>
-      </c>
-      <c r="E7">
-        <v>5399</v>
-      </c>
-      <c r="F7">
-        <v>6140</v>
-      </c>
-      <c r="G7">
-        <v>6615</v>
-      </c>
-      <c r="H7">
-        <v>7131</v>
-      </c>
-      <c r="I7">
-        <v>7503</v>
-      </c>
-      <c r="J7">
-        <v>7740</v>
-      </c>
-      <c r="K7">
-        <v>8018</v>
-      </c>
-      <c r="L7">
-        <v>8182</v>
-      </c>
-      <c r="M7">
-        <v>8349</v>
-      </c>
-      <c r="N7">
-        <v>8506</v>
-      </c>
-      <c r="O7">
-        <v>8630</v>
-      </c>
-      <c r="P7">
-        <v>8648</v>
-      </c>
-      <c r="Q7">
-        <v>8800</v>
-      </c>
-      <c r="R7">
-        <v>8911</v>
-      </c>
-      <c r="S7">
-        <v>8979</v>
-      </c>
-      <c r="T7">
-        <v>9095</v>
-      </c>
-      <c r="U7">
-        <v>9064</v>
-      </c>
-      <c r="V7">
-        <v>9168</v>
-      </c>
-      <c r="W7">
-        <v>9264</v>
-      </c>
-      <c r="X7">
-        <v>9274</v>
-      </c>
-      <c r="Y7">
-        <v>9322</v>
-      </c>
-      <c r="Z7">
-        <v>9351</v>
-      </c>
-      <c r="AA7">
-        <v>9434</v>
-      </c>
-      <c r="AB7">
-        <v>9390</v>
-      </c>
-      <c r="AC7">
-        <v>9465</v>
-      </c>
-      <c r="AD7">
-        <v>9441</v>
-      </c>
-      <c r="AE7">
-        <v>9540</v>
-      </c>
-      <c r="AF7">
-        <v>9562</v>
-      </c>
-      <c r="AG7">
-        <v>9578</v>
-      </c>
-      <c r="AH7">
-        <v>9611</v>
-      </c>
-      <c r="AI7">
-        <v>9630</v>
-      </c>
-      <c r="AJ7">
-        <v>9602</v>
-      </c>
-      <c r="AK7">
-        <v>9672</v>
-      </c>
-      <c r="AL7">
-        <v>9658</v>
-      </c>
-      <c r="AM7">
-        <v>9654</v>
-      </c>
-      <c r="AN7">
-        <v>9720</v>
-      </c>
-      <c r="AO7">
-        <v>9693</v>
-      </c>
-      <c r="AP7">
-        <v>9762</v>
-      </c>
-      <c r="AQ7">
-        <v>9753</v>
-      </c>
-      <c r="AR7">
-        <v>9776</v>
-      </c>
-      <c r="AS7">
-        <v>9785</v>
-      </c>
-      <c r="AT7">
-        <v>9810</v>
-      </c>
-      <c r="AU7">
-        <v>9819</v>
-      </c>
-      <c r="AV7">
-        <v>9806</v>
-      </c>
-      <c r="AW7">
-        <v>9815</v>
-      </c>
-      <c r="AX7">
-        <v>9813</v>
-      </c>
-      <c r="AY7">
-        <v>9849</v>
-      </c>
-      <c r="AZ7">
-        <v>9877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52">
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>3000</v>
-      </c>
-      <c r="D8">
-        <v>5000</v>
-      </c>
-      <c r="E8">
-        <v>7000</v>
-      </c>
-      <c r="F8">
-        <v>9000</v>
-      </c>
-      <c r="G8">
-        <v>11000</v>
-      </c>
-      <c r="H8">
-        <v>13000</v>
-      </c>
-      <c r="I8">
-        <v>15000</v>
-      </c>
-      <c r="J8">
-        <v>17000</v>
-      </c>
-      <c r="K8">
-        <v>19000</v>
-      </c>
-      <c r="L8">
-        <v>21000</v>
-      </c>
-      <c r="M8">
-        <v>23000</v>
-      </c>
-      <c r="N8">
-        <v>25000</v>
-      </c>
-      <c r="O8">
-        <v>27000</v>
-      </c>
-      <c r="P8">
-        <v>29000</v>
-      </c>
-      <c r="Q8">
-        <v>31000</v>
-      </c>
-      <c r="R8">
-        <v>33000</v>
-      </c>
-      <c r="S8">
-        <v>35000</v>
-      </c>
-      <c r="T8">
-        <v>37000</v>
-      </c>
-      <c r="U8">
-        <v>39000</v>
-      </c>
-      <c r="V8">
-        <v>41000</v>
-      </c>
-      <c r="W8">
-        <v>43000</v>
-      </c>
-      <c r="X8">
-        <v>45000</v>
-      </c>
-      <c r="Y8">
-        <v>47000</v>
-      </c>
-      <c r="Z8">
-        <v>49000</v>
-      </c>
-      <c r="AA8">
-        <v>51000</v>
-      </c>
-      <c r="AB8">
-        <v>53000</v>
-      </c>
-      <c r="AC8">
-        <v>55000</v>
-      </c>
-      <c r="AD8">
-        <v>57000</v>
-      </c>
-      <c r="AE8">
-        <v>59000</v>
-      </c>
-      <c r="AF8">
-        <v>60998</v>
-      </c>
-      <c r="AG8">
-        <v>63000</v>
-      </c>
-      <c r="AH8">
-        <v>65000</v>
-      </c>
-      <c r="AI8">
-        <v>66999</v>
-      </c>
-      <c r="AJ8">
-        <v>68999</v>
-      </c>
-      <c r="AK8">
-        <v>70996</v>
-      </c>
-      <c r="AL8">
-        <v>72998</v>
-      </c>
-      <c r="AM8">
-        <v>74994</v>
-      </c>
-      <c r="AN8">
-        <v>76996</v>
-      </c>
-      <c r="AO8">
-        <v>78992</v>
-      </c>
-      <c r="AP8">
-        <v>80989</v>
-      </c>
-      <c r="AQ8">
-        <v>82987</v>
-      </c>
-      <c r="AR8">
-        <v>84984</v>
-      </c>
-      <c r="AS8">
-        <v>86976</v>
-      </c>
-      <c r="AT8">
-        <v>88970</v>
-      </c>
-      <c r="AU8">
-        <v>90959</v>
-      </c>
-      <c r="AV8">
-        <v>92953</v>
-      </c>
-      <c r="AW8">
-        <v>94946</v>
-      </c>
-      <c r="AX8">
-        <v>96944</v>
-      </c>
-      <c r="AY8">
-        <v>98932</v>
-      </c>
-      <c r="AZ8">
-        <v>100899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52">
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>2914</v>
-      </c>
-      <c r="D9">
-        <v>4377</v>
-      </c>
-      <c r="E9">
-        <v>5399</v>
-      </c>
-      <c r="F9">
-        <v>6140</v>
-      </c>
-      <c r="G9">
-        <v>6615</v>
-      </c>
-      <c r="H9">
-        <v>7131</v>
-      </c>
-      <c r="I9">
-        <v>7503</v>
-      </c>
-      <c r="J9">
-        <v>7740</v>
-      </c>
-      <c r="K9">
-        <v>8018</v>
-      </c>
-      <c r="L9">
-        <v>8182</v>
-      </c>
-      <c r="M9">
-        <v>8349</v>
-      </c>
-      <c r="N9">
-        <v>8506</v>
-      </c>
-      <c r="O9">
-        <v>8630</v>
-      </c>
-      <c r="P9">
-        <v>8648</v>
-      </c>
-      <c r="Q9">
-        <v>8800</v>
-      </c>
-      <c r="R9">
-        <v>8911</v>
-      </c>
-      <c r="S9">
-        <v>8979</v>
-      </c>
-      <c r="T9">
-        <v>9095</v>
-      </c>
-      <c r="U9">
-        <v>9064</v>
-      </c>
-      <c r="V9">
-        <v>9168</v>
-      </c>
-      <c r="W9">
-        <v>9264</v>
-      </c>
-      <c r="X9">
-        <v>9274</v>
-      </c>
-      <c r="Y9">
-        <v>9322</v>
-      </c>
-      <c r="Z9">
-        <v>9351</v>
-      </c>
-      <c r="AA9">
-        <v>9434</v>
-      </c>
-      <c r="AB9">
-        <v>9390</v>
-      </c>
-      <c r="AC9">
-        <v>9465</v>
-      </c>
-      <c r="AD9">
-        <v>9441</v>
-      </c>
-      <c r="AE9">
-        <v>9540</v>
-      </c>
-      <c r="AF9">
-        <v>9562</v>
-      </c>
-      <c r="AG9">
-        <v>9578</v>
-      </c>
-      <c r="AH9">
-        <v>9611</v>
-      </c>
-      <c r="AI9">
-        <v>9629</v>
-      </c>
-      <c r="AJ9">
-        <v>9602</v>
-      </c>
-      <c r="AK9">
-        <v>9672</v>
-      </c>
-      <c r="AL9">
-        <v>9658</v>
-      </c>
-      <c r="AM9">
-        <v>9654</v>
-      </c>
-      <c r="AN9">
-        <v>9720</v>
-      </c>
-      <c r="AO9">
-        <v>9692</v>
-      </c>
-      <c r="AP9">
-        <v>9760</v>
-      </c>
-      <c r="AQ9">
-        <v>9753</v>
-      </c>
-      <c r="AR9">
-        <v>9775</v>
-      </c>
-      <c r="AS9">
-        <v>9783</v>
-      </c>
-      <c r="AT9">
-        <v>9808</v>
-      </c>
-      <c r="AU9">
-        <v>9814</v>
-      </c>
-      <c r="AV9">
-        <v>9794</v>
-      </c>
-      <c r="AW9">
-        <v>9810</v>
-      </c>
-      <c r="AX9">
-        <v>9810</v>
-      </c>
-      <c r="AY9">
-        <v>9841</v>
-      </c>
-      <c r="AZ9">
-        <v>9865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52">
-      <c r="B10">
-        <v>17645</v>
-      </c>
-      <c r="C10">
-        <v>5553</v>
-      </c>
-      <c r="D10">
-        <v>321</v>
-      </c>
-      <c r="E10">
-        <v>242</v>
-      </c>
-      <c r="F10">
-        <v>241</v>
-      </c>
-      <c r="G10">
-        <v>241</v>
-      </c>
-      <c r="H10">
-        <v>241</v>
-      </c>
-      <c r="I10">
-        <v>241</v>
-      </c>
-      <c r="J10">
-        <v>241</v>
-      </c>
-      <c r="K10">
-        <v>241</v>
-      </c>
-      <c r="L10">
-        <v>241</v>
-      </c>
-      <c r="M10">
-        <v>241</v>
-      </c>
-      <c r="N10">
-        <v>241</v>
-      </c>
-      <c r="O10">
-        <v>241</v>
-      </c>
-      <c r="P10">
-        <v>241</v>
-      </c>
-      <c r="Q10">
-        <v>241</v>
-      </c>
-      <c r="R10">
-        <v>241</v>
-      </c>
-      <c r="S10">
-        <v>241</v>
-      </c>
-      <c r="T10">
-        <v>241</v>
-      </c>
-      <c r="U10">
-        <v>241</v>
-      </c>
-      <c r="V10">
-        <v>241</v>
-      </c>
-      <c r="W10">
-        <v>241</v>
-      </c>
-      <c r="X10">
-        <v>241</v>
-      </c>
-      <c r="Y10">
-        <v>241</v>
-      </c>
-      <c r="Z10">
-        <v>241</v>
-      </c>
-      <c r="AA10">
-        <v>241</v>
-      </c>
-      <c r="AB10">
-        <v>241</v>
-      </c>
-      <c r="AC10">
-        <v>241</v>
-      </c>
-      <c r="AD10">
-        <v>241</v>
-      </c>
-      <c r="AE10">
-        <v>241</v>
-      </c>
-      <c r="AF10">
-        <v>241</v>
-      </c>
-      <c r="AG10">
-        <v>241</v>
-      </c>
-      <c r="AH10">
-        <v>241</v>
-      </c>
-      <c r="AI10">
-        <v>240</v>
-      </c>
-      <c r="AJ10">
-        <v>241</v>
-      </c>
-      <c r="AK10">
-        <v>241</v>
-      </c>
-      <c r="AL10">
-        <v>241</v>
-      </c>
-      <c r="AM10">
-        <v>241</v>
-      </c>
-      <c r="AN10">
-        <v>241</v>
-      </c>
-      <c r="AO10">
-        <v>240</v>
-      </c>
-      <c r="AP10">
-        <v>239</v>
-      </c>
-      <c r="AQ10">
-        <v>241</v>
-      </c>
-      <c r="AR10">
-        <v>239</v>
-      </c>
-      <c r="AS10">
-        <v>239</v>
-      </c>
-      <c r="AT10">
-        <v>239</v>
-      </c>
-      <c r="AU10">
-        <v>236</v>
-      </c>
-      <c r="AV10">
-        <v>229</v>
-      </c>
-      <c r="AW10">
-        <v>236</v>
-      </c>
-      <c r="AX10">
-        <v>238</v>
-      </c>
-      <c r="AY10">
-        <v>234</v>
-      </c>
-      <c r="AZ10">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>3000</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11">
-        <v>7000</v>
-      </c>
-      <c r="F11">
-        <v>9000</v>
-      </c>
-      <c r="G11">
-        <v>11000</v>
-      </c>
-      <c r="H11">
-        <v>13000</v>
-      </c>
-      <c r="I11">
-        <v>15000</v>
-      </c>
-      <c r="J11">
-        <v>17000</v>
-      </c>
-      <c r="K11">
-        <v>19000</v>
-      </c>
-      <c r="L11">
-        <v>21000</v>
-      </c>
-      <c r="M11">
-        <v>23000</v>
-      </c>
-      <c r="N11">
-        <v>25000</v>
-      </c>
-      <c r="O11">
-        <v>27000</v>
-      </c>
-      <c r="P11">
-        <v>29000</v>
-      </c>
-      <c r="Q11">
-        <v>31000</v>
-      </c>
-      <c r="R11">
-        <v>33000</v>
-      </c>
-      <c r="S11">
-        <v>35000</v>
-      </c>
-      <c r="T11">
-        <v>37000</v>
-      </c>
-      <c r="U11">
-        <v>39000</v>
-      </c>
-      <c r="V11">
-        <v>41000</v>
-      </c>
-      <c r="W11">
-        <v>43000</v>
-      </c>
-      <c r="X11">
-        <v>45000</v>
-      </c>
-      <c r="Y11">
-        <v>47000</v>
-      </c>
-      <c r="Z11">
-        <v>49000</v>
-      </c>
-      <c r="AA11">
-        <v>51000</v>
-      </c>
-      <c r="AB11">
-        <v>53000</v>
-      </c>
-      <c r="AC11">
-        <v>55000</v>
-      </c>
-      <c r="AD11">
-        <v>57000</v>
-      </c>
-      <c r="AE11">
-        <v>59000</v>
-      </c>
-      <c r="AF11">
-        <v>61000</v>
-      </c>
-      <c r="AG11">
-        <v>63000</v>
-      </c>
-      <c r="AH11">
-        <v>65000</v>
-      </c>
-      <c r="AI11">
-        <v>67000</v>
-      </c>
-      <c r="AJ11">
-        <v>69000</v>
-      </c>
-      <c r="AK11">
-        <v>71000</v>
-      </c>
-      <c r="AL11">
-        <v>73000</v>
-      </c>
-      <c r="AM11">
-        <v>75000</v>
-      </c>
-      <c r="AN11">
-        <v>77000</v>
-      </c>
-      <c r="AO11">
-        <v>79000</v>
-      </c>
-      <c r="AP11">
-        <v>81000</v>
-      </c>
-      <c r="AQ11">
-        <v>83000</v>
-      </c>
-      <c r="AR11">
-        <v>85000</v>
-      </c>
-      <c r="AS11">
-        <v>87000</v>
-      </c>
-      <c r="AT11">
-        <v>89000</v>
-      </c>
-      <c r="AU11">
-        <v>91000</v>
-      </c>
-      <c r="AV11">
-        <v>93000</v>
-      </c>
-      <c r="AW11">
-        <v>95000</v>
-      </c>
-      <c r="AX11">
-        <v>97000</v>
-      </c>
-      <c r="AY11">
-        <v>99000</v>
-      </c>
-      <c r="AZ11">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52">
-      <c r="A12">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>2905</v>
-      </c>
-      <c r="D12">
-        <v>4365</v>
-      </c>
-      <c r="E12">
-        <v>5393</v>
-      </c>
-      <c r="F12">
-        <v>6174</v>
-      </c>
-      <c r="G12">
-        <v>6716</v>
-      </c>
-      <c r="H12">
-        <v>7141</v>
-      </c>
-      <c r="I12">
-        <v>7480</v>
-      </c>
-      <c r="J12">
-        <v>7795</v>
-      </c>
-      <c r="K12">
-        <v>7958</v>
-      </c>
-      <c r="L12">
-        <v>8193</v>
-      </c>
-      <c r="M12">
-        <v>8313</v>
-      </c>
-      <c r="N12">
-        <v>8479</v>
-      </c>
-      <c r="O12">
-        <v>8637</v>
-      </c>
-      <c r="P12">
-        <v>8724</v>
-      </c>
-      <c r="Q12">
-        <v>8754</v>
-      </c>
-      <c r="R12">
-        <v>8886</v>
-      </c>
-      <c r="S12">
-        <v>8975</v>
-      </c>
-      <c r="T12">
-        <v>9046</v>
-      </c>
-      <c r="U12">
-        <v>9065</v>
-      </c>
-      <c r="V12">
-        <v>9163</v>
-      </c>
-      <c r="W12">
-        <v>9282</v>
-      </c>
-      <c r="X12">
-        <v>9301</v>
-      </c>
-      <c r="Y12">
-        <v>9320</v>
-      </c>
-      <c r="Z12">
-        <v>9308</v>
-      </c>
-      <c r="AA12">
-        <v>9366</v>
-      </c>
-      <c r="AB12">
-        <v>9407</v>
-      </c>
-      <c r="AC12">
-        <v>9423</v>
-      </c>
-      <c r="AD12">
-        <v>9465</v>
-      </c>
-      <c r="AE12">
-        <v>9548</v>
-      </c>
-      <c r="AF12">
-        <v>9514</v>
-      </c>
-      <c r="AG12">
-        <v>9551</v>
-      </c>
-      <c r="AH12">
-        <v>9666</v>
-      </c>
-      <c r="AI12">
-        <v>9618</v>
-      </c>
-      <c r="AJ12">
-        <v>9621</v>
-      </c>
-      <c r="AK12">
-        <v>9662</v>
-      </c>
-      <c r="AL12">
-        <v>9706</v>
-      </c>
-      <c r="AM12">
-        <v>9733</v>
-      </c>
-      <c r="AN12">
-        <v>9690</v>
-      </c>
-      <c r="AO12">
-        <v>9689</v>
-      </c>
-      <c r="AP12">
-        <v>9751</v>
-      </c>
-      <c r="AQ12">
-        <v>9778</v>
-      </c>
-      <c r="AR12">
-        <v>9741</v>
-      </c>
-      <c r="AS12">
-        <v>9777</v>
-      </c>
-      <c r="AT12">
-        <v>9810</v>
-      </c>
-      <c r="AU12">
-        <v>9843</v>
-      </c>
-      <c r="AV12">
-        <v>9844</v>
-      </c>
-      <c r="AW12">
-        <v>9832</v>
-      </c>
-      <c r="AX12">
-        <v>9814</v>
-      </c>
-      <c r="AY12">
-        <v>9837</v>
-      </c>
-      <c r="AZ12">
-        <v>9866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52">
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <v>3000</v>
-      </c>
-      <c r="D13">
-        <v>5000</v>
-      </c>
-      <c r="E13">
-        <v>7000</v>
-      </c>
-      <c r="F13">
-        <v>9000</v>
-      </c>
-      <c r="G13">
-        <v>11000</v>
-      </c>
-      <c r="H13">
-        <v>13000</v>
-      </c>
-      <c r="I13">
-        <v>15000</v>
-      </c>
-      <c r="J13">
-        <v>17000</v>
-      </c>
-      <c r="K13">
-        <v>19000</v>
-      </c>
-      <c r="L13">
-        <v>21000</v>
-      </c>
-      <c r="M13">
-        <v>23000</v>
-      </c>
-      <c r="N13">
-        <v>25000</v>
-      </c>
-      <c r="O13">
-        <v>27000</v>
-      </c>
-      <c r="P13">
-        <v>29000</v>
-      </c>
-      <c r="Q13">
-        <v>31000</v>
-      </c>
-      <c r="R13">
-        <v>33000</v>
-      </c>
-      <c r="S13">
-        <v>35000</v>
-      </c>
-      <c r="T13">
-        <v>37000</v>
-      </c>
-      <c r="U13">
-        <v>39000</v>
-      </c>
-      <c r="V13">
-        <v>41000</v>
-      </c>
-      <c r="W13">
-        <v>43000</v>
-      </c>
-      <c r="X13">
-        <v>45000</v>
-      </c>
-      <c r="Y13">
-        <v>47000</v>
-      </c>
-      <c r="Z13">
-        <v>49000</v>
-      </c>
-      <c r="AA13">
-        <v>51000</v>
-      </c>
-      <c r="AB13">
-        <v>53000</v>
-      </c>
-      <c r="AC13">
-        <v>55000</v>
-      </c>
-      <c r="AD13">
-        <v>56999</v>
-      </c>
-      <c r="AE13">
-        <v>59000</v>
-      </c>
-      <c r="AF13">
-        <v>61000</v>
-      </c>
-      <c r="AG13">
-        <v>63000</v>
-      </c>
-      <c r="AH13">
-        <v>65000</v>
-      </c>
-      <c r="AI13">
-        <v>66999</v>
-      </c>
-      <c r="AJ13">
-        <v>68997</v>
-      </c>
-      <c r="AK13">
-        <v>70997</v>
-      </c>
-      <c r="AL13">
-        <v>72995</v>
-      </c>
-      <c r="AM13">
-        <v>74990</v>
-      </c>
-      <c r="AN13">
-        <v>76993</v>
-      </c>
-      <c r="AO13">
-        <v>78990</v>
-      </c>
-      <c r="AP13">
-        <v>80986</v>
-      </c>
-      <c r="AQ13">
-        <v>82985</v>
-      </c>
-      <c r="AR13">
-        <v>84967</v>
-      </c>
-      <c r="AS13">
-        <v>86973</v>
-      </c>
-      <c r="AT13">
-        <v>88975</v>
-      </c>
-      <c r="AU13">
-        <v>90958</v>
-      </c>
-      <c r="AV13">
-        <v>92966</v>
-      </c>
-      <c r="AW13">
-        <v>94940</v>
-      </c>
-      <c r="AX13">
-        <v>96937</v>
-      </c>
-      <c r="AY13">
-        <v>98930</v>
-      </c>
-      <c r="AZ13">
-        <v>100925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52">
-      <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="C14">
-        <v>2905</v>
-      </c>
-      <c r="D14">
-        <v>4365</v>
-      </c>
-      <c r="E14">
-        <v>5393</v>
-      </c>
-      <c r="F14">
-        <v>6174</v>
-      </c>
-      <c r="G14">
-        <v>6716</v>
-      </c>
-      <c r="H14">
-        <v>7141</v>
-      </c>
-      <c r="I14">
-        <v>7480</v>
-      </c>
-      <c r="J14">
-        <v>7795</v>
-      </c>
-      <c r="K14">
-        <v>7958</v>
-      </c>
-      <c r="L14">
-        <v>8193</v>
-      </c>
-      <c r="M14">
-        <v>8313</v>
-      </c>
-      <c r="N14">
-        <v>8479</v>
-      </c>
-      <c r="O14">
-        <v>8637</v>
-      </c>
-      <c r="P14">
-        <v>8724</v>
-      </c>
-      <c r="Q14">
-        <v>8754</v>
-      </c>
-      <c r="R14">
-        <v>8886</v>
-      </c>
-      <c r="S14">
-        <v>8975</v>
-      </c>
-      <c r="T14">
-        <v>9046</v>
-      </c>
-      <c r="U14">
-        <v>9065</v>
-      </c>
-      <c r="V14">
-        <v>9163</v>
-      </c>
-      <c r="W14">
-        <v>9282</v>
-      </c>
-      <c r="X14">
-        <v>9301</v>
-      </c>
-      <c r="Y14">
-        <v>9320</v>
-      </c>
-      <c r="Z14">
-        <v>9308</v>
-      </c>
-      <c r="AA14">
-        <v>9366</v>
-      </c>
-      <c r="AB14">
-        <v>9407</v>
-      </c>
-      <c r="AC14">
-        <v>9423</v>
-      </c>
-      <c r="AD14">
-        <v>9465</v>
-      </c>
-      <c r="AE14">
-        <v>9548</v>
-      </c>
-      <c r="AF14">
-        <v>9514</v>
-      </c>
-      <c r="AG14">
-        <v>9551</v>
-      </c>
-      <c r="AH14">
-        <v>9666</v>
-      </c>
-      <c r="AI14">
-        <v>9618</v>
-      </c>
-      <c r="AJ14">
-        <v>9621</v>
-      </c>
-      <c r="AK14">
-        <v>9662</v>
-      </c>
-      <c r="AL14">
-        <v>9706</v>
-      </c>
-      <c r="AM14">
-        <v>9732</v>
-      </c>
-      <c r="AN14">
-        <v>9690</v>
-      </c>
-      <c r="AO14">
-        <v>9687</v>
-      </c>
-      <c r="AP14">
-        <v>9749</v>
-      </c>
-      <c r="AQ14">
-        <v>9776</v>
-      </c>
-      <c r="AR14">
-        <v>9737</v>
-      </c>
-      <c r="AS14">
-        <v>9775</v>
-      </c>
-      <c r="AT14">
-        <v>9808</v>
-      </c>
-      <c r="AU14">
-        <v>9838</v>
-      </c>
-      <c r="AV14">
-        <v>9843</v>
-      </c>
-      <c r="AW14">
-        <v>9827</v>
-      </c>
-      <c r="AX14">
-        <v>9804</v>
-      </c>
-      <c r="AY14">
-        <v>9827</v>
-      </c>
-      <c r="AZ14">
-        <v>9862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52">
-      <c r="B15">
-        <v>17645</v>
-      </c>
-      <c r="C15">
-        <v>4902</v>
-      </c>
-      <c r="D15">
-        <v>310</v>
-      </c>
-      <c r="E15">
-        <v>241</v>
-      </c>
-      <c r="F15">
-        <v>241</v>
-      </c>
-      <c r="G15">
-        <v>241</v>
-      </c>
-      <c r="H15">
-        <v>241</v>
-      </c>
-      <c r="I15">
-        <v>241</v>
-      </c>
-      <c r="J15">
-        <v>241</v>
-      </c>
-      <c r="K15">
-        <v>241</v>
-      </c>
-      <c r="L15">
-        <v>241</v>
-      </c>
-      <c r="M15">
-        <v>241</v>
-      </c>
-      <c r="N15">
-        <v>241</v>
-      </c>
-      <c r="O15">
-        <v>241</v>
-      </c>
-      <c r="P15">
-        <v>241</v>
-      </c>
-      <c r="Q15">
-        <v>241</v>
-      </c>
-      <c r="R15">
-        <v>241</v>
-      </c>
-      <c r="S15">
-        <v>241</v>
-      </c>
-      <c r="T15">
-        <v>241</v>
-      </c>
-      <c r="U15">
-        <v>241</v>
-      </c>
-      <c r="V15">
-        <v>241</v>
-      </c>
-      <c r="W15">
-        <v>241</v>
-      </c>
-      <c r="X15">
-        <v>241</v>
-      </c>
-      <c r="Y15">
-        <v>241</v>
-      </c>
-      <c r="Z15">
-        <v>241</v>
-      </c>
-      <c r="AA15">
-        <v>241</v>
-      </c>
-      <c r="AB15">
-        <v>241</v>
-      </c>
-      <c r="AC15">
-        <v>241</v>
-      </c>
-      <c r="AD15">
-        <v>241</v>
-      </c>
-      <c r="AE15">
-        <v>241</v>
-      </c>
-      <c r="AF15">
-        <v>241</v>
-      </c>
-      <c r="AG15">
-        <v>241</v>
-      </c>
-      <c r="AH15">
-        <v>241</v>
-      </c>
-      <c r="AI15">
-        <v>241</v>
-      </c>
-      <c r="AJ15">
-        <v>241</v>
-      </c>
-      <c r="AK15">
-        <v>241</v>
-      </c>
-      <c r="AL15">
-        <v>241</v>
-      </c>
-      <c r="AM15">
-        <v>240</v>
-      </c>
-      <c r="AN15">
-        <v>241</v>
-      </c>
-      <c r="AO15">
-        <v>239</v>
-      </c>
-      <c r="AP15">
-        <v>239</v>
-      </c>
-      <c r="AQ15">
-        <v>238</v>
-      </c>
-      <c r="AR15">
-        <v>234</v>
-      </c>
-      <c r="AS15">
-        <v>239</v>
-      </c>
-      <c r="AT15">
-        <v>239</v>
-      </c>
-      <c r="AU15">
-        <v>236</v>
-      </c>
-      <c r="AV15">
-        <v>240</v>
-      </c>
-      <c r="AW15">
-        <v>236</v>
-      </c>
-      <c r="AX15">
-        <v>230</v>
-      </c>
-      <c r="AY15">
-        <v>231</v>
-      </c>
-      <c r="AZ15">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:52">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>3000</v>
-      </c>
-      <c r="D16">
-        <v>5000</v>
-      </c>
-      <c r="E16">
-        <v>7000</v>
-      </c>
-      <c r="F16">
-        <v>9000</v>
-      </c>
-      <c r="G16">
-        <v>11000</v>
-      </c>
-      <c r="H16">
-        <v>13000</v>
-      </c>
-      <c r="I16">
-        <v>15000</v>
-      </c>
-      <c r="J16">
-        <v>17000</v>
-      </c>
-      <c r="K16">
-        <v>19000</v>
-      </c>
-      <c r="L16">
-        <v>21000</v>
-      </c>
-      <c r="M16">
-        <v>23000</v>
-      </c>
-      <c r="N16">
-        <v>25000</v>
-      </c>
-      <c r="O16">
-        <v>27000</v>
-      </c>
-      <c r="P16">
-        <v>29000</v>
-      </c>
-      <c r="Q16">
-        <v>31000</v>
-      </c>
-      <c r="R16">
-        <v>33000</v>
-      </c>
-      <c r="S16">
-        <v>35000</v>
-      </c>
-      <c r="T16">
-        <v>37000</v>
-      </c>
-      <c r="U16">
-        <v>39000</v>
-      </c>
-      <c r="V16">
-        <v>41000</v>
-      </c>
-      <c r="W16">
-        <v>43000</v>
-      </c>
-      <c r="X16">
-        <v>45000</v>
-      </c>
-      <c r="Y16">
-        <v>47000</v>
-      </c>
-      <c r="Z16">
-        <v>49000</v>
-      </c>
-      <c r="AA16">
-        <v>51000</v>
-      </c>
-      <c r="AB16">
-        <v>53000</v>
-      </c>
-      <c r="AC16">
-        <v>55000</v>
-      </c>
-      <c r="AD16">
-        <v>57000</v>
-      </c>
-      <c r="AE16">
-        <v>59000</v>
-      </c>
-      <c r="AF16">
-        <v>61000</v>
-      </c>
-      <c r="AG16">
-        <v>63000</v>
-      </c>
-      <c r="AH16">
-        <v>65000</v>
-      </c>
-      <c r="AI16">
-        <v>67000</v>
-      </c>
-      <c r="AJ16">
-        <v>69000</v>
-      </c>
-      <c r="AK16">
-        <v>71000</v>
-      </c>
-      <c r="AL16">
-        <v>73000</v>
-      </c>
-      <c r="AM16">
-        <v>75000</v>
-      </c>
-      <c r="AN16">
-        <v>77000</v>
-      </c>
-      <c r="AO16">
-        <v>79000</v>
-      </c>
-      <c r="AP16">
-        <v>81000</v>
-      </c>
-      <c r="AQ16">
-        <v>83000</v>
-      </c>
-      <c r="AR16">
-        <v>85000</v>
-      </c>
-      <c r="AS16">
-        <v>87000</v>
-      </c>
-      <c r="AT16">
-        <v>89000</v>
-      </c>
-      <c r="AU16">
-        <v>91000</v>
-      </c>
-      <c r="AV16">
-        <v>93000</v>
-      </c>
-      <c r="AW16">
-        <v>95000</v>
-      </c>
-      <c r="AX16">
-        <v>97000</v>
-      </c>
-      <c r="AY16">
-        <v>99000</v>
-      </c>
-      <c r="AZ16">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52">
-      <c r="A17">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17">
-        <v>2900</v>
-      </c>
-      <c r="D17">
-        <v>4360</v>
-      </c>
-      <c r="E17">
-        <v>5398</v>
-      </c>
-      <c r="F17">
-        <v>6159</v>
-      </c>
-      <c r="G17">
-        <v>6697</v>
-      </c>
-      <c r="H17">
-        <v>7144</v>
-      </c>
-      <c r="I17">
-        <v>7509</v>
-      </c>
-      <c r="J17">
-        <v>7827</v>
-      </c>
-      <c r="K17">
-        <v>8028</v>
-      </c>
-      <c r="L17">
-        <v>8175</v>
-      </c>
-      <c r="M17">
-        <v>8375</v>
-      </c>
-      <c r="N17">
-        <v>8494</v>
-      </c>
-      <c r="O17">
-        <v>8610</v>
-      </c>
-      <c r="P17">
-        <v>8804</v>
-      </c>
-      <c r="Q17">
-        <v>8851</v>
-      </c>
-      <c r="R17">
-        <v>8876</v>
-      </c>
-      <c r="S17">
-        <v>8988</v>
-      </c>
-      <c r="T17">
-        <v>9053</v>
-      </c>
-      <c r="U17">
-        <v>9091</v>
-      </c>
-      <c r="V17">
-        <v>9167</v>
-      </c>
-      <c r="W17">
-        <v>9169</v>
-      </c>
-      <c r="X17">
-        <v>9251</v>
-      </c>
-      <c r="Y17">
-        <v>9352</v>
-      </c>
-      <c r="Z17">
-        <v>9337</v>
-      </c>
-      <c r="AA17">
-        <v>9403</v>
-      </c>
-      <c r="AB17">
-        <v>9421</v>
-      </c>
-      <c r="AC17">
-        <v>9505</v>
-      </c>
-      <c r="AD17">
-        <v>9473</v>
-      </c>
-      <c r="AE17">
-        <v>9491</v>
-      </c>
-      <c r="AF17">
-        <v>9546</v>
-      </c>
-      <c r="AG17">
-        <v>9544</v>
-      </c>
-      <c r="AH17">
-        <v>9626</v>
-      </c>
-      <c r="AI17">
-        <v>9547</v>
-      </c>
-      <c r="AJ17">
-        <v>9565</v>
-      </c>
-      <c r="AK17">
-        <v>9619</v>
-      </c>
-      <c r="AL17">
-        <v>9690</v>
-      </c>
-      <c r="AM17">
-        <v>9705</v>
-      </c>
-      <c r="AN17">
-        <v>9688</v>
-      </c>
-      <c r="AO17">
-        <v>9756</v>
-      </c>
-      <c r="AP17">
-        <v>9731</v>
-      </c>
-      <c r="AQ17">
-        <v>9799</v>
-      </c>
-      <c r="AR17">
-        <v>9759</v>
-      </c>
-      <c r="AS17">
-        <v>9755</v>
-      </c>
-      <c r="AT17">
-        <v>9756</v>
-      </c>
-      <c r="AU17">
-        <v>9820</v>
-      </c>
-      <c r="AV17">
-        <v>9848</v>
-      </c>
-      <c r="AW17">
-        <v>9849</v>
-      </c>
-      <c r="AX17">
-        <v>9843</v>
-      </c>
-      <c r="AY17">
-        <v>9828</v>
-      </c>
-      <c r="AZ17">
-        <v>9803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:52">
-      <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>3000</v>
-      </c>
-      <c r="D18">
-        <v>5000</v>
-      </c>
-      <c r="E18">
-        <v>7000</v>
-      </c>
-      <c r="F18">
-        <v>9000</v>
-      </c>
-      <c r="G18">
-        <v>11000</v>
-      </c>
-      <c r="H18">
-        <v>13000</v>
-      </c>
-      <c r="I18">
-        <v>15000</v>
-      </c>
-      <c r="J18">
-        <v>17000</v>
-      </c>
-      <c r="K18">
-        <v>19000</v>
-      </c>
-      <c r="L18">
-        <v>21000</v>
-      </c>
-      <c r="M18">
-        <v>23000</v>
-      </c>
-      <c r="N18">
-        <v>25000</v>
-      </c>
-      <c r="O18">
-        <v>27000</v>
-      </c>
-      <c r="P18">
-        <v>29000</v>
-      </c>
-      <c r="Q18">
-        <v>31000</v>
-      </c>
-      <c r="R18">
-        <v>33000</v>
-      </c>
-      <c r="S18">
-        <v>35000</v>
-      </c>
-      <c r="T18">
-        <v>37000</v>
-      </c>
-      <c r="U18">
-        <v>39000</v>
-      </c>
-      <c r="V18">
-        <v>41000</v>
-      </c>
-      <c r="W18">
-        <v>43000</v>
-      </c>
-      <c r="X18">
-        <v>45000</v>
-      </c>
-      <c r="Y18">
-        <v>47000</v>
-      </c>
-      <c r="Z18">
-        <v>49000</v>
-      </c>
-      <c r="AA18">
-        <v>51000</v>
-      </c>
-      <c r="AB18">
-        <v>53000</v>
-      </c>
-      <c r="AC18">
-        <v>55000</v>
-      </c>
-      <c r="AD18">
-        <v>57000</v>
-      </c>
-      <c r="AE18">
-        <v>59000</v>
-      </c>
-      <c r="AF18">
-        <v>60998</v>
-      </c>
-      <c r="AG18">
-        <v>62999</v>
-      </c>
-      <c r="AH18">
-        <v>64998</v>
-      </c>
-      <c r="AI18">
-        <v>66997</v>
-      </c>
-      <c r="AJ18">
-        <v>68997</v>
-      </c>
-      <c r="AK18">
-        <v>70998</v>
-      </c>
-      <c r="AL18">
-        <v>72993</v>
-      </c>
-      <c r="AM18">
-        <v>74996</v>
-      </c>
-      <c r="AN18">
-        <v>76990</v>
-      </c>
-      <c r="AO18">
-        <v>78989</v>
-      </c>
-      <c r="AP18">
-        <v>80993</v>
-      </c>
-      <c r="AQ18">
-        <v>82981</v>
-      </c>
-      <c r="AR18">
-        <v>84972</v>
-      </c>
-      <c r="AS18">
-        <v>86977</v>
-      </c>
-      <c r="AT18">
-        <v>88974</v>
-      </c>
-      <c r="AU18">
-        <v>90957</v>
-      </c>
-      <c r="AV18">
-        <v>92958</v>
-      </c>
-      <c r="AW18">
-        <v>94946</v>
-      </c>
-      <c r="AX18">
-        <v>96928</v>
-      </c>
-      <c r="AY18">
-        <v>98933</v>
-      </c>
-      <c r="AZ18">
-        <v>100921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52">
-      <c r="B19">
-        <v>1000</v>
-      </c>
-      <c r="C19">
-        <v>2900</v>
-      </c>
-      <c r="D19">
-        <v>4360</v>
-      </c>
-      <c r="E19">
-        <v>5398</v>
-      </c>
-      <c r="F19">
-        <v>6159</v>
-      </c>
-      <c r="G19">
-        <v>6697</v>
-      </c>
-      <c r="H19">
-        <v>7144</v>
-      </c>
-      <c r="I19">
-        <v>7509</v>
-      </c>
-      <c r="J19">
-        <v>7827</v>
-      </c>
-      <c r="K19">
-        <v>8028</v>
-      </c>
-      <c r="L19">
-        <v>8175</v>
-      </c>
-      <c r="M19">
-        <v>8375</v>
-      </c>
-      <c r="N19">
-        <v>8494</v>
-      </c>
-      <c r="O19">
-        <v>8610</v>
-      </c>
-      <c r="P19">
-        <v>8804</v>
-      </c>
-      <c r="Q19">
-        <v>8851</v>
-      </c>
-      <c r="R19">
-        <v>8876</v>
-      </c>
-      <c r="S19">
-        <v>8988</v>
-      </c>
-      <c r="T19">
-        <v>9053</v>
-      </c>
-      <c r="U19">
-        <v>9091</v>
-      </c>
-      <c r="V19">
-        <v>9167</v>
-      </c>
-      <c r="W19">
-        <v>9169</v>
-      </c>
-      <c r="X19">
-        <v>9251</v>
-      </c>
-      <c r="Y19">
-        <v>9352</v>
-      </c>
-      <c r="Z19">
-        <v>9337</v>
-      </c>
-      <c r="AA19">
-        <v>9403</v>
-      </c>
-      <c r="AB19">
-        <v>9421</v>
-      </c>
-      <c r="AC19">
-        <v>9505</v>
-      </c>
-      <c r="AD19">
-        <v>9473</v>
-      </c>
-      <c r="AE19">
-        <v>9491</v>
-      </c>
-      <c r="AF19">
-        <v>9546</v>
-      </c>
-      <c r="AG19">
-        <v>9544</v>
-      </c>
-      <c r="AH19">
-        <v>9626</v>
-      </c>
-      <c r="AI19">
-        <v>9547</v>
-      </c>
-      <c r="AJ19">
-        <v>9564</v>
-      </c>
-      <c r="AK19">
-        <v>9619</v>
-      </c>
-      <c r="AL19">
-        <v>9689</v>
-      </c>
-      <c r="AM19">
-        <v>9704</v>
-      </c>
-      <c r="AN19">
-        <v>9687</v>
-      </c>
-      <c r="AO19">
-        <v>9755</v>
-      </c>
-      <c r="AP19">
-        <v>9730</v>
-      </c>
-      <c r="AQ19">
-        <v>9795</v>
-      </c>
-      <c r="AR19">
-        <v>9758</v>
-      </c>
-      <c r="AS19">
-        <v>9753</v>
-      </c>
-      <c r="AT19">
-        <v>9754</v>
-      </c>
-      <c r="AU19">
-        <v>9814</v>
-      </c>
-      <c r="AV19">
-        <v>9844</v>
-      </c>
-      <c r="AW19">
-        <v>9841</v>
-      </c>
-      <c r="AX19">
-        <v>9837</v>
-      </c>
-      <c r="AY19">
-        <v>9819</v>
-      </c>
-      <c r="AZ19">
-        <v>9798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52">
-      <c r="B20">
-        <v>17645</v>
-      </c>
-      <c r="C20">
-        <v>4591</v>
-      </c>
-      <c r="D20">
-        <v>302</v>
-      </c>
-      <c r="E20">
-        <v>241</v>
-      </c>
-      <c r="F20">
-        <v>241</v>
-      </c>
-      <c r="G20">
-        <v>241</v>
-      </c>
-      <c r="H20">
-        <v>241</v>
-      </c>
-      <c r="I20">
-        <v>241</v>
-      </c>
-      <c r="J20">
-        <v>241</v>
-      </c>
-      <c r="K20">
-        <v>241</v>
-      </c>
-      <c r="L20">
-        <v>241</v>
-      </c>
-      <c r="M20">
-        <v>241</v>
-      </c>
-      <c r="N20">
-        <v>241</v>
-      </c>
-      <c r="O20">
-        <v>241</v>
-      </c>
-      <c r="P20">
-        <v>241</v>
-      </c>
-      <c r="Q20">
-        <v>241</v>
-      </c>
-      <c r="R20">
-        <v>241</v>
-      </c>
-      <c r="S20">
-        <v>241</v>
-      </c>
-      <c r="T20">
-        <v>241</v>
-      </c>
-      <c r="U20">
-        <v>241</v>
-      </c>
-      <c r="V20">
-        <v>241</v>
-      </c>
-      <c r="W20">
-        <v>241</v>
-      </c>
-      <c r="X20">
-        <v>241</v>
-      </c>
-      <c r="Y20">
-        <v>241</v>
-      </c>
-      <c r="Z20">
-        <v>241</v>
-      </c>
-      <c r="AA20">
-        <v>241</v>
-      </c>
-      <c r="AB20">
-        <v>241</v>
-      </c>
-      <c r="AC20">
-        <v>241</v>
-      </c>
-      <c r="AD20">
-        <v>241</v>
-      </c>
-      <c r="AE20">
-        <v>241</v>
-      </c>
-      <c r="AF20">
-        <v>241</v>
-      </c>
-      <c r="AG20">
-        <v>241</v>
-      </c>
-      <c r="AH20">
-        <v>241</v>
-      </c>
-      <c r="AI20">
-        <v>241</v>
-      </c>
-      <c r="AJ20">
-        <v>240</v>
-      </c>
-      <c r="AK20">
-        <v>241</v>
-      </c>
-      <c r="AL20">
-        <v>239</v>
-      </c>
-      <c r="AM20">
-        <v>240</v>
-      </c>
-      <c r="AN20">
-        <v>240</v>
-      </c>
-      <c r="AO20">
-        <v>240</v>
-      </c>
-      <c r="AP20">
-        <v>240</v>
-      </c>
-      <c r="AQ20">
-        <v>237</v>
-      </c>
-      <c r="AR20">
-        <v>240</v>
-      </c>
-      <c r="AS20">
-        <v>239</v>
-      </c>
-      <c r="AT20">
-        <v>239</v>
-      </c>
-      <c r="AU20">
-        <v>235</v>
-      </c>
-      <c r="AV20">
-        <v>237</v>
-      </c>
-      <c r="AW20">
-        <v>233</v>
-      </c>
-      <c r="AX20">
-        <v>234</v>
-      </c>
-      <c r="AY20">
-        <v>232</v>
-      </c>
-      <c r="AZ20">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:52">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21">
-        <v>3000</v>
-      </c>
-      <c r="D21">
-        <v>5000</v>
-      </c>
-      <c r="E21">
-        <v>7000</v>
-      </c>
-      <c r="F21">
-        <v>9000</v>
-      </c>
-      <c r="G21">
-        <v>11000</v>
-      </c>
-      <c r="H21">
-        <v>13000</v>
-      </c>
-      <c r="I21">
-        <v>15000</v>
-      </c>
-      <c r="J21">
-        <v>17000</v>
-      </c>
-      <c r="K21">
-        <v>19000</v>
-      </c>
-      <c r="L21">
-        <v>21000</v>
-      </c>
-      <c r="M21">
-        <v>23000</v>
-      </c>
-      <c r="N21">
-        <v>25000</v>
-      </c>
-      <c r="O21">
-        <v>27000</v>
-      </c>
-      <c r="P21">
-        <v>29000</v>
-      </c>
-      <c r="Q21">
-        <v>31000</v>
-      </c>
-      <c r="R21">
-        <v>33000</v>
-      </c>
-      <c r="S21">
-        <v>35000</v>
-      </c>
-      <c r="T21">
-        <v>37000</v>
-      </c>
-      <c r="U21">
-        <v>39000</v>
-      </c>
-      <c r="V21">
-        <v>41000</v>
-      </c>
-      <c r="W21">
-        <v>43000</v>
-      </c>
-      <c r="X21">
-        <v>45000</v>
-      </c>
-      <c r="Y21">
-        <v>47000</v>
-      </c>
-      <c r="Z21">
-        <v>49000</v>
-      </c>
-      <c r="AA21">
-        <v>51000</v>
-      </c>
-      <c r="AB21">
-        <v>53000</v>
-      </c>
-      <c r="AC21">
-        <v>55000</v>
-      </c>
-      <c r="AD21">
-        <v>57000</v>
-      </c>
-      <c r="AE21">
-        <v>59000</v>
-      </c>
-      <c r="AF21">
-        <v>61000</v>
-      </c>
-      <c r="AG21">
-        <v>63000</v>
-      </c>
-      <c r="AH21">
-        <v>65000</v>
-      </c>
-      <c r="AI21">
-        <v>67000</v>
-      </c>
-      <c r="AJ21">
-        <v>69000</v>
-      </c>
-      <c r="AK21">
-        <v>71000</v>
-      </c>
-      <c r="AL21">
-        <v>73000</v>
-      </c>
-      <c r="AM21">
-        <v>75000</v>
-      </c>
-      <c r="AN21">
-        <v>77000</v>
-      </c>
-      <c r="AO21">
-        <v>79000</v>
-      </c>
-      <c r="AP21">
-        <v>81000</v>
-      </c>
-      <c r="AQ21">
-        <v>83000</v>
-      </c>
-      <c r="AR21">
-        <v>85000</v>
-      </c>
-      <c r="AS21">
-        <v>87000</v>
-      </c>
-      <c r="AT21">
-        <v>89000</v>
-      </c>
-      <c r="AU21">
-        <v>91000</v>
-      </c>
-      <c r="AV21">
-        <v>93000</v>
-      </c>
-      <c r="AW21">
-        <v>95000</v>
-      </c>
-      <c r="AX21">
-        <v>97000</v>
-      </c>
-      <c r="AY21">
-        <v>99000</v>
-      </c>
-      <c r="AZ21">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:52">
-      <c r="A22">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22">
-        <v>2893</v>
-      </c>
-      <c r="D22">
-        <v>4372</v>
-      </c>
-      <c r="E22">
-        <v>5386</v>
-      </c>
-      <c r="F22">
-        <v>6205</v>
-      </c>
-      <c r="G22">
-        <v>6763</v>
-      </c>
-      <c r="H22">
-        <v>7124</v>
-      </c>
-      <c r="I22">
-        <v>7527</v>
-      </c>
-      <c r="J22">
-        <v>7755</v>
-      </c>
-      <c r="K22">
-        <v>8015</v>
-      </c>
-      <c r="L22">
-        <v>8197</v>
-      </c>
-      <c r="M22">
-        <v>8316</v>
-      </c>
-      <c r="N22">
-        <v>8486</v>
-      </c>
-      <c r="O22">
-        <v>8580</v>
-      </c>
-      <c r="P22">
-        <v>8765</v>
-      </c>
-      <c r="Q22">
-        <v>8841</v>
-      </c>
-      <c r="R22">
-        <v>8903</v>
-      </c>
-      <c r="S22">
-        <v>9041</v>
-      </c>
-      <c r="T22">
-        <v>9076</v>
-      </c>
-      <c r="U22">
-        <v>9112</v>
-      </c>
-      <c r="V22">
-        <v>9147</v>
-      </c>
-      <c r="W22">
-        <v>9190</v>
-      </c>
-      <c r="X22">
-        <v>9243</v>
-      </c>
-      <c r="Y22">
-        <v>9289</v>
-      </c>
-      <c r="Z22">
-        <v>9319</v>
-      </c>
-      <c r="AA22">
-        <v>9426</v>
-      </c>
-      <c r="AB22">
-        <v>9405</v>
-      </c>
-      <c r="AC22">
-        <v>9475</v>
-      </c>
-      <c r="AD22">
-        <v>9500</v>
-      </c>
-      <c r="AE22">
-        <v>9500</v>
-      </c>
-      <c r="AF22">
-        <v>9532</v>
-      </c>
-      <c r="AG22">
-        <v>9549</v>
-      </c>
-      <c r="AH22">
-        <v>9589</v>
-      </c>
-      <c r="AI22">
-        <v>9609</v>
-      </c>
-      <c r="AJ22">
-        <v>9645</v>
-      </c>
-      <c r="AK22">
-        <v>9638</v>
-      </c>
-      <c r="AL22">
-        <v>9680</v>
-      </c>
-      <c r="AM22">
-        <v>9704</v>
-      </c>
-      <c r="AN22">
-        <v>9729</v>
-      </c>
-      <c r="AO22">
-        <v>9712</v>
-      </c>
-      <c r="AP22">
-        <v>9773</v>
-      </c>
-      <c r="AQ22">
-        <v>9805</v>
-      </c>
-      <c r="AR22">
-        <v>9772</v>
-      </c>
-      <c r="AS22">
-        <v>9798</v>
-      </c>
-      <c r="AT22">
-        <v>9744</v>
-      </c>
-      <c r="AU22">
-        <v>9842</v>
-      </c>
-      <c r="AV22">
-        <v>9804</v>
-      </c>
-      <c r="AW22">
-        <v>9852</v>
-      </c>
-      <c r="AX22">
-        <v>9817</v>
-      </c>
-      <c r="AY22">
-        <v>9868</v>
-      </c>
-      <c r="AZ22">
-        <v>9858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:52">
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23">
-        <v>3000</v>
-      </c>
-      <c r="D23">
-        <v>5000</v>
-      </c>
-      <c r="E23">
-        <v>7000</v>
-      </c>
-      <c r="F23">
-        <v>9000</v>
-      </c>
-      <c r="G23">
-        <v>11000</v>
-      </c>
-      <c r="H23">
-        <v>13000</v>
-      </c>
-      <c r="I23">
-        <v>15000</v>
-      </c>
-      <c r="J23">
-        <v>17000</v>
-      </c>
-      <c r="K23">
-        <v>19000</v>
-      </c>
-      <c r="L23">
-        <v>21000</v>
-      </c>
-      <c r="M23">
-        <v>23000</v>
-      </c>
-      <c r="N23">
-        <v>25000</v>
-      </c>
-      <c r="O23">
-        <v>27000</v>
-      </c>
-      <c r="P23">
-        <v>29000</v>
-      </c>
-      <c r="Q23">
-        <v>31000</v>
-      </c>
-      <c r="R23">
-        <v>33000</v>
-      </c>
-      <c r="S23">
-        <v>35000</v>
-      </c>
-      <c r="T23">
-        <v>37000</v>
-      </c>
-      <c r="U23">
-        <v>39000</v>
-      </c>
-      <c r="V23">
-        <v>41000</v>
-      </c>
-      <c r="W23">
-        <v>43000</v>
-      </c>
-      <c r="X23">
-        <v>45000</v>
-      </c>
-      <c r="Y23">
-        <v>47000</v>
-      </c>
-      <c r="Z23">
-        <v>49000</v>
-      </c>
-      <c r="AA23">
-        <v>51000</v>
-      </c>
-      <c r="AB23">
-        <v>53000</v>
-      </c>
-      <c r="AC23">
-        <v>55000</v>
-      </c>
-      <c r="AD23">
-        <v>57000</v>
-      </c>
-      <c r="AE23">
-        <v>58999</v>
-      </c>
-      <c r="AF23">
-        <v>61000</v>
-      </c>
-      <c r="AG23">
-        <v>63000</v>
-      </c>
-      <c r="AH23">
-        <v>64999</v>
-      </c>
-      <c r="AI23">
-        <v>66999</v>
-      </c>
-      <c r="AJ23">
-        <v>68999</v>
-      </c>
-      <c r="AK23">
-        <v>70997</v>
-      </c>
-      <c r="AL23">
-        <v>72996</v>
-      </c>
-      <c r="AM23">
-        <v>74992</v>
-      </c>
-      <c r="AN23">
-        <v>76988</v>
-      </c>
-      <c r="AO23">
-        <v>78995</v>
-      </c>
-      <c r="AP23">
-        <v>80985</v>
-      </c>
-      <c r="AQ23">
-        <v>82990</v>
-      </c>
-      <c r="AR23">
-        <v>84981</v>
-      </c>
-      <c r="AS23">
-        <v>86979</v>
-      </c>
-      <c r="AT23">
-        <v>88964</v>
-      </c>
-      <c r="AU23">
-        <v>90961</v>
-      </c>
-      <c r="AV23">
-        <v>92972</v>
-      </c>
-      <c r="AW23">
-        <v>94955</v>
-      </c>
-      <c r="AX23">
-        <v>96941</v>
-      </c>
-      <c r="AY23">
-        <v>98925</v>
-      </c>
-      <c r="AZ23">
-        <v>100923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52">
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <v>2893</v>
-      </c>
-      <c r="D24">
-        <v>4372</v>
-      </c>
-      <c r="E24">
-        <v>5386</v>
-      </c>
-      <c r="F24">
-        <v>6205</v>
-      </c>
-      <c r="G24">
-        <v>6763</v>
-      </c>
-      <c r="H24">
-        <v>7124</v>
-      </c>
-      <c r="I24">
-        <v>7527</v>
-      </c>
-      <c r="J24">
-        <v>7755</v>
-      </c>
-      <c r="K24">
-        <v>8015</v>
-      </c>
-      <c r="L24">
-        <v>8197</v>
-      </c>
-      <c r="M24">
-        <v>8316</v>
-      </c>
-      <c r="N24">
-        <v>8486</v>
-      </c>
-      <c r="O24">
-        <v>8580</v>
-      </c>
-      <c r="P24">
-        <v>8765</v>
-      </c>
-      <c r="Q24">
-        <v>8841</v>
-      </c>
-      <c r="R24">
-        <v>8903</v>
-      </c>
-      <c r="S24">
-        <v>9041</v>
-      </c>
-      <c r="T24">
-        <v>9076</v>
-      </c>
-      <c r="U24">
-        <v>9112</v>
-      </c>
-      <c r="V24">
-        <v>9147</v>
-      </c>
-      <c r="W24">
-        <v>9190</v>
-      </c>
-      <c r="X24">
-        <v>9243</v>
-      </c>
-      <c r="Y24">
-        <v>9289</v>
-      </c>
-      <c r="Z24">
-        <v>9319</v>
-      </c>
-      <c r="AA24">
-        <v>9426</v>
-      </c>
-      <c r="AB24">
-        <v>9405</v>
-      </c>
-      <c r="AC24">
-        <v>9475</v>
-      </c>
-      <c r="AD24">
-        <v>9500</v>
-      </c>
-      <c r="AE24">
-        <v>9500</v>
-      </c>
-      <c r="AF24">
-        <v>9532</v>
-      </c>
-      <c r="AG24">
-        <v>9549</v>
-      </c>
-      <c r="AH24">
-        <v>9589</v>
-      </c>
-      <c r="AI24">
-        <v>9609</v>
-      </c>
-      <c r="AJ24">
-        <v>9645</v>
-      </c>
-      <c r="AK24">
-        <v>9637</v>
-      </c>
-      <c r="AL24">
-        <v>9680</v>
-      </c>
-      <c r="AM24">
-        <v>9704</v>
-      </c>
-      <c r="AN24">
-        <v>9728</v>
-      </c>
-      <c r="AO24">
-        <v>9712</v>
-      </c>
-      <c r="AP24">
-        <v>9771</v>
-      </c>
-      <c r="AQ24">
-        <v>9802</v>
-      </c>
-      <c r="AR24">
-        <v>9770</v>
-      </c>
-      <c r="AS24">
-        <v>9798</v>
-      </c>
-      <c r="AT24">
-        <v>9739</v>
-      </c>
-      <c r="AU24">
-        <v>9840</v>
-      </c>
-      <c r="AV24">
-        <v>9800</v>
-      </c>
-      <c r="AW24">
-        <v>9852</v>
-      </c>
-      <c r="AX24">
-        <v>9813</v>
-      </c>
-      <c r="AY24">
-        <v>9860</v>
-      </c>
-      <c r="AZ24">
-        <v>9850</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52">
-      <c r="B25">
-        <v>17645</v>
-      </c>
-      <c r="C25">
-        <v>4145</v>
-      </c>
-      <c r="D25">
-        <v>301</v>
-      </c>
-      <c r="E25">
-        <v>241</v>
-      </c>
-      <c r="F25">
-        <v>241</v>
-      </c>
-      <c r="G25">
-        <v>241</v>
-      </c>
-      <c r="H25">
-        <v>241</v>
-      </c>
-      <c r="I25">
-        <v>241</v>
-      </c>
-      <c r="J25">
-        <v>241</v>
-      </c>
-      <c r="K25">
-        <v>241</v>
-      </c>
-      <c r="L25">
-        <v>241</v>
-      </c>
-      <c r="M25">
-        <v>241</v>
-      </c>
-      <c r="N25">
-        <v>241</v>
-      </c>
-      <c r="O25">
-        <v>241</v>
-      </c>
-      <c r="P25">
-        <v>241</v>
-      </c>
-      <c r="Q25">
-        <v>241</v>
-      </c>
-      <c r="R25">
-        <v>241</v>
-      </c>
-      <c r="S25">
-        <v>241</v>
-      </c>
-      <c r="T25">
-        <v>241</v>
-      </c>
-      <c r="U25">
-        <v>241</v>
-      </c>
-      <c r="V25">
-        <v>241</v>
-      </c>
-      <c r="W25">
-        <v>241</v>
-      </c>
-      <c r="X25">
-        <v>241</v>
-      </c>
-      <c r="Y25">
-        <v>241</v>
-      </c>
-      <c r="Z25">
-        <v>241</v>
-      </c>
-      <c r="AA25">
-        <v>241</v>
-      </c>
-      <c r="AB25">
-        <v>241</v>
-      </c>
-      <c r="AC25">
-        <v>241</v>
-      </c>
-      <c r="AD25">
-        <v>241</v>
-      </c>
-      <c r="AE25">
-        <v>241</v>
-      </c>
-      <c r="AF25">
-        <v>241</v>
-      </c>
-      <c r="AG25">
-        <v>241</v>
-      </c>
-      <c r="AH25">
-        <v>241</v>
-      </c>
-      <c r="AI25">
-        <v>241</v>
-      </c>
-      <c r="AJ25">
-        <v>241</v>
-      </c>
-      <c r="AK25">
-        <v>240</v>
-      </c>
-      <c r="AL25">
-        <v>241</v>
-      </c>
-      <c r="AM25">
-        <v>241</v>
-      </c>
-      <c r="AN25">
-        <v>240</v>
-      </c>
-      <c r="AO25">
-        <v>241</v>
-      </c>
-      <c r="AP25">
-        <v>238</v>
-      </c>
-      <c r="AQ25">
-        <v>238</v>
-      </c>
-      <c r="AR25">
-        <v>239</v>
-      </c>
-      <c r="AS25">
-        <v>241</v>
-      </c>
-      <c r="AT25">
-        <v>236</v>
-      </c>
-      <c r="AU25">
-        <v>239</v>
-      </c>
-      <c r="AV25">
-        <v>237</v>
-      </c>
-      <c r="AW25">
-        <v>241</v>
-      </c>
-      <c r="AX25">
-        <v>237</v>
-      </c>
-      <c r="AY25">
-        <v>233</v>
-      </c>
-      <c r="AZ25">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-    </row>
-    <row r="28" spans="1:52">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F28" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>11000</v>
-      </c>
-      <c r="H28" s="1">
-        <v>13000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>15000</v>
-      </c>
-      <c r="J28" s="1">
-        <v>17000</v>
-      </c>
-      <c r="K28" s="1">
-        <v>19000</v>
-      </c>
-      <c r="L28" s="1">
-        <v>21000</v>
-      </c>
-      <c r="M28" s="1">
-        <v>23000</v>
-      </c>
-      <c r="N28" s="1">
-        <v>25000</v>
-      </c>
-      <c r="O28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="P28" s="1">
-        <v>29000</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>31000</v>
-      </c>
-      <c r="R28" s="1">
-        <v>33000</v>
-      </c>
-      <c r="S28" s="1">
-        <v>35000</v>
-      </c>
-      <c r="T28" s="1">
-        <v>37000</v>
-      </c>
-      <c r="U28" s="1">
-        <v>39000</v>
-      </c>
-      <c r="V28" s="1">
-        <v>41000</v>
-      </c>
-      <c r="W28" s="1">
-        <v>43000</v>
-      </c>
-      <c r="X28" s="1">
-        <v>45000</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>47000</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>49000</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>51000</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>53000</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>55000</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>57000</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>59000</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>61000</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>63000</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>65000</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>67000</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>69000</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>71000</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>73000</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>75000</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>77000</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>79000</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>81000</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>83000</v>
-      </c>
-      <c r="AR28" s="1">
-        <v>85000</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>87000</v>
-      </c>
-      <c r="AT28" s="1">
-        <v>89000</v>
-      </c>
-      <c r="AU28" s="1">
-        <v>91000</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>93000</v>
-      </c>
-      <c r="AW28" s="1">
-        <v>95000</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>97000</v>
-      </c>
-      <c r="AY28" s="1">
-        <v>99000</v>
-      </c>
-      <c r="AZ28" s="1">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1">
-        <v>995.2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2488</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3265</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3728.4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4004</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4217.3999999999996</v>
-      </c>
-      <c r="H29" s="1">
-        <v>4358.6000000000004</v>
-      </c>
-      <c r="I29" s="1">
-        <v>4481.8</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4558.3999999999996</v>
-      </c>
-      <c r="K29" s="1">
-        <v>4630.6000000000004</v>
-      </c>
-      <c r="L29" s="1">
-        <v>4701.6000000000004</v>
-      </c>
-      <c r="M29" s="1">
-        <v>4750.2</v>
-      </c>
-      <c r="N29" s="1">
-        <v>4786.2</v>
-      </c>
-      <c r="O29" s="1">
-        <v>4829.6000000000004</v>
-      </c>
-      <c r="P29" s="1">
-        <v>4865</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>4879.6000000000004</v>
-      </c>
-      <c r="R29" s="1">
-        <v>4917.3999999999996</v>
-      </c>
-      <c r="S29" s="1">
-        <v>4912.6000000000004</v>
-      </c>
-      <c r="T29" s="1">
-        <v>4967</v>
-      </c>
-      <c r="U29" s="1">
-        <v>4976.3999999999996</v>
-      </c>
-      <c r="V29" s="1">
-        <v>4985.6000000000004</v>
-      </c>
-      <c r="W29" s="1">
-        <v>5003</v>
-      </c>
-      <c r="X29" s="1">
-        <v>5015.3999999999996</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>5024</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>5048.6000000000004</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>5049.6000000000004</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>5051.6000000000004</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>5065.2</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>5074</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>5079.2</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>5092</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>5087.3999999999996</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>5109.8</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>5115.6000000000004</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>5102.8</v>
-      </c>
-      <c r="AK29" s="1">
-        <v>5122.3999999999996</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>5130.3999999999996</v>
-      </c>
-      <c r="AM29" s="1">
-        <v>5135.3999999999996</v>
-      </c>
-      <c r="AN29" s="1">
-        <v>5135.2</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>5144.3999999999996</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>5145.2</v>
-      </c>
-      <c r="AQ29" s="1">
-        <v>5143</v>
-      </c>
-      <c r="AR29" s="1">
-        <v>5158.3999999999996</v>
-      </c>
-      <c r="AS29" s="1">
-        <v>5156.2</v>
-      </c>
-      <c r="AT29" s="1">
-        <v>5157</v>
-      </c>
-      <c r="AU29" s="1">
-        <v>5156.2</v>
-      </c>
-      <c r="AV29" s="1">
-        <v>5162.2</v>
-      </c>
-      <c r="AW29" s="1">
-        <v>5181.8</v>
-      </c>
-      <c r="AX29" s="1">
-        <v>5180</v>
-      </c>
-      <c r="AY29" s="1">
-        <v>5174</v>
-      </c>
-      <c r="AZ29" s="1">
-        <v>5176.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:52">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F30" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>11000</v>
-      </c>
-      <c r="H30" s="1">
-        <v>13000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>15000</v>
-      </c>
-      <c r="J30" s="1">
-        <v>17000</v>
-      </c>
-      <c r="K30" s="1">
-        <v>19000</v>
-      </c>
-      <c r="L30" s="1">
-        <v>21000</v>
-      </c>
-      <c r="M30" s="1">
-        <v>23000</v>
-      </c>
-      <c r="N30" s="1">
-        <v>25000</v>
-      </c>
-      <c r="O30" s="1">
-        <v>27000</v>
-      </c>
-      <c r="P30" s="1">
-        <v>28999.8</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>31000</v>
-      </c>
-      <c r="R30" s="1">
-        <v>32999</v>
-      </c>
-      <c r="S30" s="1">
-        <v>34999.4</v>
-      </c>
-      <c r="T30" s="1">
-        <v>36998.400000000001</v>
-      </c>
-      <c r="U30" s="1">
-        <v>38997.4</v>
-      </c>
-      <c r="V30" s="1">
-        <v>40997.4</v>
-      </c>
-      <c r="W30" s="1">
-        <v>42993.8</v>
-      </c>
-      <c r="X30" s="1">
-        <v>44986.6</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>46984.2</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>48974.400000000001</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>50962.2</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>52952.800000000003</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>54933.2</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>56918.2</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>58871.6</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>60855.8</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>62831.6</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>64779.4</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>66717</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>68659.199999999997</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>70632</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>72523.199999999997</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>74441.600000000006</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>76352.600000000006</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>78256.399999999994</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>80145.600000000006</v>
-      </c>
-      <c r="AQ30" s="1">
-        <v>82059.8</v>
-      </c>
-      <c r="AR30" s="1">
-        <v>83917.8</v>
-      </c>
-      <c r="AS30" s="1">
-        <v>85689.600000000006</v>
-      </c>
-      <c r="AT30" s="1">
-        <v>87552.2</v>
-      </c>
-      <c r="AU30" s="1">
-        <v>89395.6</v>
-      </c>
-      <c r="AV30" s="1">
-        <v>91187.8</v>
-      </c>
-      <c r="AW30" s="1">
-        <v>93020.6</v>
-      </c>
-      <c r="AX30" s="1">
-        <v>94819.199999999997</v>
-      </c>
-      <c r="AY30" s="1">
-        <v>96643.6</v>
-      </c>
-      <c r="AZ30" s="1">
-        <v>98432.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:52">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <v>995.2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2488</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3265</v>
-      </c>
-      <c r="E31" s="1">
-        <v>3728.4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4004</v>
-      </c>
-      <c r="G31" s="1">
-        <v>4217.3999999999996</v>
-      </c>
-      <c r="H31" s="1">
-        <v>4358.6000000000004</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4481.8</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4558.3999999999996</v>
-      </c>
-      <c r="K31" s="1">
-        <v>4630.6000000000004</v>
-      </c>
-      <c r="L31" s="1">
-        <v>4701.6000000000004</v>
-      </c>
-      <c r="M31" s="1">
-        <v>4750.2</v>
-      </c>
-      <c r="N31" s="1">
-        <v>4786.2</v>
-      </c>
-      <c r="O31" s="1">
-        <v>4829.6000000000004</v>
-      </c>
-      <c r="P31" s="1">
-        <v>4865</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>4879.6000000000004</v>
-      </c>
-      <c r="R31" s="1">
-        <v>4917.2</v>
-      </c>
-      <c r="S31" s="1">
-        <v>4912.6000000000004</v>
-      </c>
-      <c r="T31" s="1">
-        <v>4966.8</v>
-      </c>
-      <c r="U31" s="1">
-        <v>4976.2</v>
-      </c>
-      <c r="V31" s="1">
-        <v>4985.3999999999996</v>
-      </c>
-      <c r="W31" s="1">
-        <v>5002.3999999999996</v>
-      </c>
-      <c r="X31" s="1">
-        <v>5014</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>5022.2</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>5045.2</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>5046.8</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>5047.6000000000004</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>5060.8</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>5066.2</v>
-      </c>
-      <c r="AE31" s="1">
-        <v>5069.8</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>5079.6000000000004</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>5073.6000000000004</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>5094</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>5095.8</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>5078.8</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>5097.6000000000004</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>5098.3999999999996</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>5096</v>
-      </c>
-      <c r="AN31" s="1">
-        <v>5091.8</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>5108</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>5086.8</v>
-      </c>
-      <c r="AQ31" s="1">
-        <v>5088.3999999999996</v>
-      </c>
-      <c r="AR31" s="1">
-        <v>5090.6000000000004</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>5088.3999999999996</v>
-      </c>
-      <c r="AT31" s="1">
-        <v>5072.2</v>
-      </c>
-      <c r="AU31" s="1">
-        <v>5069.8</v>
-      </c>
-      <c r="AV31" s="1">
-        <v>5061.6000000000004</v>
-      </c>
-      <c r="AW31" s="1">
-        <v>5077.2</v>
-      </c>
-      <c r="AX31" s="1">
-        <v>5069.8</v>
-      </c>
-      <c r="AY31" s="1">
-        <v>5053.6000000000004</v>
-      </c>
-      <c r="AZ31" s="1">
-        <v>5052.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:52">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>15983.6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>563</v>
-      </c>
-      <c r="D32" s="1">
-        <v>243.6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>241</v>
-      </c>
-      <c r="F32" s="1">
-        <v>241</v>
-      </c>
-      <c r="G32" s="1">
-        <v>241</v>
-      </c>
-      <c r="H32" s="1">
-        <v>241</v>
-      </c>
-      <c r="I32" s="1">
-        <v>241</v>
-      </c>
-      <c r="J32" s="1">
-        <v>241</v>
-      </c>
-      <c r="K32" s="1">
-        <v>241</v>
-      </c>
-      <c r="L32" s="1">
-        <v>241</v>
-      </c>
-      <c r="M32" s="1">
-        <v>241</v>
-      </c>
-      <c r="N32" s="1">
-        <v>241</v>
-      </c>
-      <c r="O32" s="1">
-        <v>241</v>
-      </c>
-      <c r="P32" s="1">
-        <v>241</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>241</v>
-      </c>
-      <c r="R32" s="1">
-        <v>240.8</v>
-      </c>
-      <c r="S32" s="1">
-        <v>241</v>
-      </c>
-      <c r="T32" s="1">
-        <v>240.8</v>
-      </c>
-      <c r="U32" s="1">
-        <v>240.8</v>
-      </c>
-      <c r="V32" s="1">
-        <v>240.8</v>
-      </c>
-      <c r="W32" s="1">
-        <v>240.2</v>
-      </c>
-      <c r="X32" s="1">
-        <v>239.6</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>239.2</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>237.6</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>238</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>236.6</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>236.2</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>233.4</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>231.4</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>228.4</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>227.2</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>225.4</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>221.6</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>218</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>216.8</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>210.2</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>203.8</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>198.8</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>205.6</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>186.2</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>188</v>
-      </c>
-      <c r="AR32" s="1">
-        <v>179.4</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>179.8</v>
-      </c>
-      <c r="AT32" s="1">
-        <v>169.2</v>
-      </c>
-      <c r="AU32" s="1">
-        <v>164.8</v>
-      </c>
-      <c r="AV32" s="1">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="AW32" s="1">
-        <v>153.6</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>150.19999999999999</v>
-      </c>
-      <c r="AY32" s="1">
-        <v>143.6</v>
-      </c>
-      <c r="AZ32" s="1">
-        <v>136.80000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>